--- a/毕设.xlsx
+++ b/毕设.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>加载</t>
   </si>
@@ -64,9 +64,6 @@
     <t>镜头跟随角色</t>
   </si>
   <si>
-    <t>人物攻击动作控制</t>
-  </si>
-  <si>
     <t>连招系统</t>
   </si>
   <si>
@@ -291,11 +288,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刚体碰撞体重叠时会抖动，无奈手动写了重力脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方向，攻击，闪避，跳跃，挑飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像已经自动绑定好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚体碰撞体重叠时会抖动，无奈手动写了重力脚本
+人物移动的方向受到摄像机角度的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段跳</t>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>AA AAA</t>
+  </si>
+  <si>
+    <t>挑飞</t>
+  </si>
+  <si>
+    <t>长按挑飞</t>
+  </si>
+  <si>
+    <t>下劈</t>
+  </si>
+  <si>
+    <t>开枪</t>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当人物向后移动时，相机应该在什么程度时自动转向到角色后方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动跟随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会自动旋转到合适位置，只能手动转了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物动作控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑动与静止的转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,10 +485,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,8 +494,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,361 +804,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G46"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="18.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23" style="10" customWidth="1"/>
-    <col min="6" max="6" width="68.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="8" customWidth="1"/>
+    <col min="6" max="6" width="68.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="11"/>
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="11"/>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="D12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="E14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="D21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="D22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="E23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E27" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D28" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D29" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D31" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="14"/>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D44" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="14"/>
-      <c r="D3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="14"/>
-      <c r="E5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="14"/>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E47" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E48" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="D12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
-      <c r="E14" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="E16" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="E18" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="D19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="D21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D22" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D23" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D24" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D25" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D26" s="9" t="s">
+      <c r="D52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E53" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D54" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D27" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D29" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D30" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E37" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E38" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E39" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E44" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D45" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="8" t="s">
+      <c r="D55" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/毕设.xlsx
+++ b/毕设.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>加载</t>
   </si>
@@ -363,6 +363,14 @@
   </si>
   <si>
     <t>跑动与静止的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为animator设置转换条件，设置条件与状态转换似乎不在同一帧内发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G55"/>
+  <dimension ref="B1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,209 +1040,218 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
       <c r="D24" s="13" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="F24" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="10" t="s">
+      <c r="E25" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D26" s="13" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D27" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E27" s="8" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E28" s="8" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D29" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D31" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D32" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="8" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="8" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D34" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D35" s="13" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D36" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D37" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D40" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E42" s="8" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E43" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="7" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D45" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D46" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E46" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E47" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E48" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E49" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C49" s="10" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E53" s="8" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E54" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="13" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D55" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C55" s="7" t="s">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>53</v>
       </c>
     </row>
